--- a/TestCase/test.xlsx
+++ b/TestCase/test.xlsx
@@ -33,16 +33,16 @@
     <t>headers</t>
   </si>
   <si>
-    <t>请求方式</t>
-  </si>
-  <si>
-    <t>入参</t>
+    <t>method</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>state</t>
   </si>
   <si>
-    <t>content-text</t>
+    <t>assert-text</t>
   </si>
   <si>
     <t>新增门禁机</t>
@@ -54,48 +54,38 @@
     <t>http://181.181.0.33:22020/api/acs/v1/door_ban/insert</t>
   </si>
   <si>
-    <t>Content-Type：application/json</t>
+    <t>{'Content-Type': 'application/json'}</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>{
- "doorBanSn":"111",
- "ip":"1.1.1.1",
- "doorBanName":"门禁1",
- "manufacturer":"厂商1",
- "model":"型号1",
- "longitude":120.333,
- "latitude":20.333,
- "regionCode":"110228",
- "communityCode":"330104",
- "direction":"东",
- "installationAddress":"杭州下去",
- "remark":"没有备注",
- "state":0
+    <t>{"doorBanSn":"1111","ip":"1.1.1.1","doorBanName":"门禁1","manufacturer":"厂商1","model":"型号1","longitude":120.333,"latitude":20.333,"regionCode":"330104","communityCode":"330104","direction":"0","installationAddress":"杭州下去","remark":"没有备注","state":0}</t>
+  </si>
+  <si>
+    <t>根据小区编码与状态值查询门禁机列表</t>
+  </si>
+  <si>
+    <t>http://181.181.0.33:22020/api/acs/v1/door_ban/state</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{"state":"0",
+"communityCode":"3301044321",
+"start":"1",
+"limit":"10"
 }</t>
   </si>
   <si>
-    <t>根据小区编码与状态值查询门禁机列表</t>
-  </si>
-  <si>
-    <t>http://181.181.0.33:22020/api/acs/v1/door_ban/state</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>state=0&amp;communityCode=3301044321&amp;start=1&amp;limit=10</t>
-  </si>
-  <si>
     <t>删除门禁机</t>
   </si>
   <si>
     <t>仅必填参数</t>
   </si>
   <si>
-    <t>http://181.181.0.33:22020/api/acs/v1/door_ban/{id}</t>
+    <t>http://181.181.0.33:22020/api/acs/v1/door_ban/</t>
   </si>
   <si>
     <t>DELETE</t>
@@ -120,8 +110,8 @@
  "longitude":20.333,
  "latitude":120.333,
  "regionCode":"110227",
- "communityCode":"?",
- "direction":"西",
+ "communityCode":"110101570B48",
+ "direction":"1",
  "installationAddress":"杭州上去",
  "remark":"有备注",
  "state":1
@@ -134,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -164,12 +154,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -186,7 +246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,7 +260,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,84 +275,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,37 +290,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,145 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,17 +484,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,8 +552,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,47 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,16 +601,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,112 +622,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,8 +1103,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1155,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="216" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="148.5" spans="1:9">
       <c r="A2" s="3">
         <v>1.1</v>
       </c>
@@ -1180,15 +1170,17 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="27" spans="1:8">
+    <row r="3" s="2" customFormat="1" ht="81" spans="1:9">
       <c r="A3" s="5">
         <v>1.7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
@@ -1202,8 +1194,11 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
+    <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="5">
         <v>1.3</v>
       </c>
@@ -1220,12 +1215,14 @@
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2"/>
       <c r="H4" s="2">
         <v>0</v>
       </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="229.5" spans="1:8">
+    <row r="5" s="2" customFormat="1" ht="256.5" spans="1:9">
       <c r="A5" s="5">
         <v>1.2</v>
       </c>
@@ -1249,17 +1246,20 @@
       </c>
       <c r="H5" s="2">
         <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F1:F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5">
       <formula1>"POST,GET,DELETE,PUT"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://181.181.0.33:22020/api/acs/v1/door_ban/insert" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/insert"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://181.181.0.33:22020/api/acs/v1/door_ban/{id}" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/{id}"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://181.181.0.33:22020/api/acs/v1/door_ban/" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/"/>
     <hyperlink ref="D3" r:id="rId3" display="http://181.181.0.33:22020/api/acs/v1/door_ban/state" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/state"/>
     <hyperlink ref="D5" r:id="rId4" display="http://181.181.0.33:22020/api/acs/v1/door_ban/update" tooltip="http://181.181.0.166:22020/api/acs/v1/door_ban/update"/>
   </hyperlinks>

--- a/TestCase/test.xlsx
+++ b/TestCase/test.xlsx
@@ -60,7 +60,21 @@
     <t>POST</t>
   </si>
   <si>
-    <t>{"doorBanSn":"1111","ip":"1.1.1.1","doorBanName":"门禁1","manufacturer":"厂商1","model":"型号1","longitude":120.333,"latitude":20.333,"regionCode":"330104","communityCode":"330104","direction":"0","installationAddress":"杭州下去","remark":"没有备注","state":0}</t>
+    <t>{
+"doorBanSn":"1111",
+"ip":"1.1.1.1",
+"doorBanName":"门禁1",
+"manufacturer":"厂商1",
+"model":"型号1",
+"longitude":120.333,
+"latitude":20.333,
+"regionCode":"330104",
+"communityCode":"330104",
+"direction":"0",
+"installationAddress":"杭州下去",
+"remark":"没有备注",
+"state":0
+}</t>
   </si>
   <si>
     <t>根据小区编码与状态值查询门禁机列表</t>
@@ -85,7 +99,7 @@
     <t>仅必填参数</t>
   </si>
   <si>
-    <t>http://181.181.0.33:22020/api/acs/v1/door_ban/</t>
+    <t>http://181.181.0.33:22020/api/acs/v1/door_ban/?id=66</t>
   </si>
   <si>
     <t>DELETE</t>
@@ -101,20 +115,20 @@
   </si>
   <si>
     <t>{
- "id":${id},
- "doorBanSn":"222",
- "ip":"2.2.2.2",
- "doorBanName":"门禁2",
- "manufacturer":"厂商2",
- "model":"型号2",
- "longitude":20.333,
- "latitude":120.333,
- "regionCode":"110227",
- "communityCode":"110101570B48",
- "direction":"1",
- "installationAddress":"杭州上去",
- "remark":"有备注",
- "state":1
+"id":"68",
+"doorBanSn":"2222",
+"ip":"2.2.2.2",
+"doorBanName":"门禁1",
+"manufacturer":"厂商1",
+"model":"型号1",
+"longitude":120.333,
+"latitude":20.333,
+"regionCode":"330104",
+"communityCode":"330104",
+"direction":"0",
+"installationAddress":"杭州下去",
+"remark":"没有备注",
+"state":0
 }</t>
   </si>
 </sst>
@@ -124,9 +138,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1104,7 +1118,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1145,7 +1159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="148.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="216" spans="1:9">
       <c r="A2" s="3">
         <v>1.1</v>
       </c>
@@ -1215,6 +1229,7 @@
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="2">
         <v>0</v>
       </c>
@@ -1222,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="256.5" spans="1:9">
+    <row r="5" s="2" customFormat="1" ht="229.5" spans="1:9">
       <c r="A5" s="5">
         <v>1.2</v>
       </c>
@@ -1241,7 +1256,7 @@
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="2">
@@ -1259,7 +1274,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://181.181.0.33:22020/api/acs/v1/door_ban/insert" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/insert"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://181.181.0.33:22020/api/acs/v1/door_ban/" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://181.181.0.33:22020/api/acs/v1/door_ban/?id=66" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/?id=66"/>
     <hyperlink ref="D3" r:id="rId3" display="http://181.181.0.33:22020/api/acs/v1/door_ban/state" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/state"/>
     <hyperlink ref="D5" r:id="rId4" display="http://181.181.0.33:22020/api/acs/v1/door_ban/update" tooltip="http://181.181.0.166:22020/api/acs/v1/door_ban/update"/>
   </hyperlinks>

--- a/TestCase/test.xlsx
+++ b/TestCase/test.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>编号</t>
   </si>
@@ -45,90 +43,30 @@
     <t>assert-text</t>
   </si>
   <si>
-    <t>新增门禁机</t>
-  </si>
-  <si>
-    <t>无空参</t>
-  </si>
-  <si>
-    <t>http://181.181.0.33:22020/api/acs/v1/door_ban/insert</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'application/json'}</t>
+    <t>新增小区</t>
+  </si>
+  <si>
+    <t>test_add</t>
+  </si>
+  <si>
+    <t>/api/region/v1/community/add</t>
+  </si>
+  <si>
+    <t>{
+"Content-Type":"application/json",
+"Connection":"keep-alive"
+}</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
     <t>{
-"doorBanSn":"1111",
-"ip":"1.1.1.1",
-"doorBanName":"门禁1",
-"manufacturer":"厂商1",
-"model":"型号1",
-"longitude":120.333,
-"latitude":20.333,
-"regionCode":"330104",
-"communityCode":"330104",
-"direction":"0",
-"installationAddress":"杭州下去",
-"remark":"没有备注",
-"state":0
-}</t>
-  </si>
-  <si>
-    <t>根据小区编码与状态值查询门禁机列表</t>
-  </si>
-  <si>
-    <t>http://181.181.0.33:22020/api/acs/v1/door_ban/state</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{"state":"0",
-"communityCode":"3301044321",
-"start":"1",
-"limit":"10"
-}</t>
-  </si>
-  <si>
-    <t>删除门禁机</t>
-  </si>
-  <si>
-    <t>仅必填参数</t>
-  </si>
-  <si>
-    <t>http://181.181.0.33:22020/api/acs/v1/door_ban/?id=66</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>修改门禁机</t>
-  </si>
-  <si>
-    <t>http://181.181.0.33:22020/api/acs/v1/door_ban/update</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>{
-"id":"68",
-"doorBanSn":"2222",
-"ip":"2.2.2.2",
-"doorBanName":"门禁1",
-"manufacturer":"厂商1",
-"model":"型号1",
-"longitude":120.333,
-"latitude":20.333,
-"regionCode":"330104",
-"communityCode":"330104",
-"direction":"0",
-"installationAddress":"杭州下去",
-"remark":"没有备注",
-"state":0
+ "detailedAddress":"1231231321313",
+ "regionCode":"${regionCode}",
+ "communityName":"测试新增小区",
+ "transformRegion": "false",
+ "addressCode":"${addressCode}"
 }</t>
   </si>
 </sst>
@@ -159,14 +97,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -213,6 +143,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -273,23 +211,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +248,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,30 +284,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,48 +296,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,6 +356,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -430,7 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,48 +423,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,7 +553,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,7 +562,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,55 +571,55 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -690,82 +628,76 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1115,18 +1047,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="55.75" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="5" width="63.5" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="7" max="7" width="37.25" customWidth="1"/>
     <col min="8" max="8" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1159,161 +1091,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="216" spans="1:9">
-      <c r="A2" s="3">
+    <row r="2" s="2" customFormat="1" ht="94.5" spans="1:8">
+      <c r="A2" s="2">
         <v>1.1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="81" spans="1:9">
-      <c r="A3" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
-      <c r="A4" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="229.5" spans="1:9">
-      <c r="A5" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5">
-      <formula1>"POST,GET,DELETE,PUT"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://181.181.0.33:22020/api/acs/v1/door_ban/insert" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/insert"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://181.181.0.33:22020/api/acs/v1/door_ban/?id=66" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/?id=66"/>
-    <hyperlink ref="D3" r:id="rId3" display="http://181.181.0.33:22020/api/acs/v1/door_ban/state" tooltip="http://181.181.0.33:22020/api/acs/v1/door_ban/state"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://181.181.0.33:22020/api/acs/v1/door_ban/update" tooltip="http://181.181.0.166:22020/api/acs/v1/door_ban/update"/>
+    <hyperlink ref="D2" r:id="rId1" display="/api/region/v1/community/add"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>